--- a/storage/app/contoh/data-dihapus.xlsx
+++ b/storage/app/contoh/data-dihapus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Jenis Data</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>{"sdm_no_absen":"06220037","sdm_nama":"FIRNANDA DWI CHASPARIO","penempatan_mulai":"2022-09-30","penempatan_selesai":null,"penempatan_ke":null,"penempatan_lokasi":"KKA-BGR","penempatan_posisi":"ADMINISTRASI UMUM PABRIK","penempatan_kategori":"BULANAN","penempatan_kontrak":"OS-CU","penempatan_pangkat":"PELAKSANA","penempatan_golongan":"B","penempatan_grup":null,"penempatan_keterangan":null}</t>
+  </si>
+  <si>
+    <t>{"tambahsdm_no":"2023030003","tambahsdm_penempatan":"KKA-GG","tambahsdm_posisi":"OPERATOR GUDANG BAHAN BAKU","tambahsdm_jumlah":1,"tambahsdm_tgl_diusulkan":"2023-03-04","tambahsdm_tgl_dibutuhkan":"2023-03-11","tambahsdm_alasan":"MENGGANTIKAN KARYAWAN RESIGN","tambahsdm_keterangan":null,"tambahsdm_status":"DIUSULKAN","tambahsdm_sdm_id":"03200022","tambahsdm_uuid":"e110c212-be4a-11ed-a4fd-fcaa14bc19b3"}</t>
+  </si>
+  <si>
+    <t>DATA GANDA</t>
+  </si>
+  <si>
+    <t>{"tambahsdm_no":"2023030007","tambahsdm_penempatan":"KKA-BM","tambahsdm_posisi":"OPERATOR PRODUKSI ATAP UPVC","tambahsdm_jumlah":1,"tambahsdm_tgl_diusulkan":"2023-03-07","tambahsdm_tgl_dibutuhkan":"2023-03-11","tambahsdm_alasan":"MENGGANTIKAN KARYAWAN RESIGN (GUNAWAN SETIADI)","tambahsdm_keterangan":null,"tambahsdm_status":"DISETUJUI","tambahsdm_sdm_id":"03200010","tambahsdm_uuid":"732f8ab1-bfb8-11ed-a4fd-fcaa14bc19b3"}</t>
+  </si>
+  <si>
+    <t>{"tambahsdm_no":"2023030004","tambahsdm_penempatan":"KKA-BM","tambahsdm_posisi":"ADMINISTRASI GUDANG ENGINEERING","tambahsdm_jumlah":1,"tambahsdm_tgl_diusulkan":"2023-03-07","tambahsdm_tgl_dibutuhkan":"2023-03-11","tambahsdm_alasan":"MENGGANTIKAN KARYAWAN RESIGN (AFIFA TRI AMALIA)","tambahsdm_keterangan":null,"tambahsdm_status":"DIUSULKAN","tambahsdm_sdm_id":"03200041","tambahsdm_uuid":"fa7145fa-bfb6-11ed-a4fd-fcaa14bc19b3"}</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,8 +520,59 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44995.180902778</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44998.482673611</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44998.48306713</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection password="E98C" sheet="true" objects="true" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
+  <sheetProtection password="E98C" sheet="1" objects="1" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
